--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_24.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1246416.942357994</v>
+        <v>1219980.387048044</v>
       </c>
     </row>
     <row r="7">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15.84826192495265</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -677,52 +677,52 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>148.8506349098461</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>13.94347069460051</v>
+        <v>148.2900191774061</v>
       </c>
       <c r="W3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>159.0801288120801</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>205.5178444382804</v>
+        <v>9.211010870930394</v>
       </c>
       <c r="G5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="H5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="6">
@@ -981,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>125.2000597604661</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>123.9870252186734</v>
       </c>
     </row>
     <row r="7">
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.0339917726842</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1142,55 +1142,55 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>169.0708280266249</v>
+        <v>165.7173798661024</v>
       </c>
       <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H8" t="n">
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>205.5178444382804</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>102.5949237722608</v>
       </c>
       <c r="Y9" t="n">
-        <v>86.21539897205307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1379,64 +1379,64 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>169.0708280266249</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="G11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I11" t="n">
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1452,25 +1452,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>20.51630811538615</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>157.5289022712338</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1543,16 +1543,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>181.0201173812374</v>
@@ -1655,17 +1655,17 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>78.52620343795996</v>
       </c>
       <c r="V15" t="n">
-        <v>120.0500723064956</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1853,10 +1853,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="G17" t="n">
-        <v>51.72215467797748</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>241.0142888776591</v>
@@ -1865,7 +1865,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1923,13 +1923,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1941,7 +1941,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>67.92775320576783</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2041,13 +2041,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,28 +2081,28 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>220.8837963815378</v>
-      </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2160,22 +2160,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>31.60815104066432</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>111.1939927714464</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2211,10 +2211,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2278,13 +2278,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>241.0142888776591</v>
@@ -2381,7 +2381,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2400,13 +2400,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>100.9332433248028</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>11.29947649380434</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2488,40 +2488,40 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2555,13 +2555,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="E26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2615,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,16 +2631,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>54.53468222769657</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2691,13 +2691,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>71.64885309469996</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2792,73 +2792,73 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="H30" t="n">
-        <v>25.52452633447239</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3029,16 +3029,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3071,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>124.5388004963448</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3168,13 +3168,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>191.6328515574376</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3266,13 +3266,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3311,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3354,10 +3354,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>17.61720206839</v>
       </c>
       <c r="G36" t="n">
-        <v>35.00246782997241</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3588,10 +3588,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>56.96494961966629</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -3600,7 +3600,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>49.32998539960097</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>24.75543250779076</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3782,16 +3782,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>171.0294181666926</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T41" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U41" t="n">
         <v>205.5178444382804</v>
@@ -3822,7 +3822,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>52.64939492479343</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>52.64939492479352</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -4019,13 +4019,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>171.0294181666926</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4068,10 +4068,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>80.86228322859426</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>174.1446834303782</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>463.0946480769296</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="C2" t="n">
-        <v>255.5008658160403</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="D2" t="n">
-        <v>255.5008658160403</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="E2" t="n">
-        <v>255.5008658160403</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="F2" t="n">
-        <v>239.4925204373003</v>
+        <v>31.89873817641097</v>
       </c>
       <c r="G2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4337,7 +4337,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
         <v>583.2163723184226</v>
@@ -4349,31 +4349,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S2" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T2" t="n">
-        <v>670.6884303378189</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U2" t="n">
-        <v>670.6884303378189</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V2" t="n">
-        <v>670.6884303378189</v>
+        <v>454.031803447393</v>
       </c>
       <c r="W2" t="n">
-        <v>670.6884303378189</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="X2" t="n">
-        <v>463.0946480769296</v>
+        <v>246.4380211865037</v>
       </c>
       <c r="Y2" t="n">
-        <v>463.0946480769296</v>
+        <v>246.4380211865037</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.19556020784815</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="C3" t="n">
-        <v>17.19556020784815</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="D3" t="n">
-        <v>17.19556020784815</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="E3" t="n">
-        <v>17.19556020784815</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="F3" t="n">
-        <v>17.19556020784815</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="G3" t="n">
         <v>17.19556020784815</v>
@@ -4416,43 +4416,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>446.4674385625565</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U3" t="n">
-        <v>446.4674385625565</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V3" t="n">
-        <v>432.3831247296267</v>
+        <v>363.520167886122</v>
       </c>
       <c r="W3" t="n">
-        <v>224.7893424687375</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="X3" t="n">
-        <v>17.19556020784815</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.19556020784815</v>
+        <v>155.9263856252326</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
         <v>16.44142755506243</v>
@@ -4522,16 +4522,16 @@
         <v>148.224788009872</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C5" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D5" t="n">
-        <v>651.2927635848137</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E5" t="n">
-        <v>651.2927635848137</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="F5" t="n">
-        <v>443.6989813239244</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G5" t="n">
-        <v>236.1051990630351</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H5" t="n">
         <v>28.51141680214578</v>
@@ -4589,28 +4589,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T5" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U5" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V5" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W5" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X5" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y5" t="n">
-        <v>811.9797623848946</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>142.9061343838161</v>
+        <v>254.0297473238067</v>
       </c>
       <c r="C6" t="n">
-        <v>142.9061343838161</v>
+        <v>254.0297473238067</v>
       </c>
       <c r="D6" t="n">
-        <v>142.9061343838161</v>
+        <v>254.0297473238067</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>254.0297473238067</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N6" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4671,25 +4671,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>518.7152536647734</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U6" t="n">
-        <v>518.7152536647734</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V6" t="n">
-        <v>518.7152536647734</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W6" t="n">
-        <v>518.7152536647734</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="X6" t="n">
-        <v>518.7152536647734</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="Y6" t="n">
-        <v>311.1214714038841</v>
+        <v>422.2450843438747</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>732.290080796757</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="C7" t="n">
-        <v>732.290080796757</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="D7" t="n">
-        <v>732.290080796757</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E7" t="n">
-        <v>732.290080796757</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F7" t="n">
-        <v>710.0335234506114</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G7" t="n">
-        <v>710.0335234506114</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H7" t="n">
-        <v>710.0335234506114</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I7" t="n">
-        <v>710.0335234506114</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J7" t="n">
-        <v>710.0335234506114</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K7" t="n">
         <v>687.5390872628509</v>
@@ -4744,31 +4744,31 @@
         <v>819.3224477176605</v>
       </c>
       <c r="Q7" t="n">
-        <v>732.290080796757</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="R7" t="n">
-        <v>732.290080796757</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="S7" t="n">
-        <v>732.290080796757</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="T7" t="n">
-        <v>732.290080796757</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="U7" t="n">
-        <v>732.290080796757</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="V7" t="n">
-        <v>732.290080796757</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="W7" t="n">
-        <v>732.290080796757</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="X7" t="n">
-        <v>732.290080796757</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="Y7" t="n">
-        <v>732.290080796757</v>
+        <v>819.3224477176605</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C8" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D8" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E8" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F8" t="n">
-        <v>443.6989813239244</v>
+        <v>31.89873817641097</v>
       </c>
       <c r="G8" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4811,13 +4811,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4832,22 +4832,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>337.4290148093045</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="F9" t="n">
         <v>16.44142755506243</v>
@@ -4884,19 +4884,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N9" t="n">
-        <v>570.0333416264414</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P9" t="n">
         <v>752.6768192397923</v>
@@ -4905,28 +4905,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>720.9018483060073</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T9" t="n">
-        <v>518.7152536647734</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U9" t="n">
-        <v>311.1214714038841</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V9" t="n">
-        <v>103.5276891429948</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W9" t="n">
-        <v>103.5276891429948</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X9" t="n">
-        <v>103.5276891429948</v>
+        <v>337.4290148093045</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.44142755506243</v>
+        <v>337.4290148093045</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
         <v>16.44142755506243</v>
@@ -4978,34 +4978,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C11" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D11" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E11" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F11" t="n">
-        <v>651.2927635848137</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5048,13 +5048,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5081,10 +5081,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y11" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>359.5951503604969</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="C12" t="n">
-        <v>359.5951503604969</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="D12" t="n">
-        <v>359.5951503604969</v>
+        <v>571.967438644756</v>
       </c>
       <c r="E12" t="n">
-        <v>359.5951503604969</v>
+        <v>412.7299836393005</v>
       </c>
       <c r="F12" t="n">
-        <v>359.5951503604969</v>
+        <v>266.1954256661855</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>127.464600248801</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5127,16 +5127,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5148,22 +5148,22 @@
         <v>720.9018483060073</v>
       </c>
       <c r="T12" t="n">
-        <v>518.7152536647734</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U12" t="n">
-        <v>518.7152536647734</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V12" t="n">
-        <v>518.7152536647734</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W12" t="n">
-        <v>518.7152536647734</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X12" t="n">
-        <v>359.5951503604969</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y12" t="n">
-        <v>359.5951503604969</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="13">
@@ -5191,13 +5191,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C14" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D14" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E14" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H14" t="n">
         <v>199.2900309704538</v>
@@ -5279,10 +5279,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M14" t="n">
         <v>379.753706324525</v>
@@ -5303,13 +5303,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
         <v>614.4775954922324</v>
@@ -5321,7 +5321,7 @@
         <v>614.4775954922324</v>
       </c>
       <c r="Y14" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>265.9785117033614</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>265.9785117033614</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>265.9785117033614</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I15" t="n">
         <v>16.44142755506243</v>
@@ -5361,13 +5361,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>232.5025681519757</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M15" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O15" t="n">
         <v>639.4279001397708</v>
@@ -5388,19 +5388,19 @@
         <v>345.2979091154422</v>
       </c>
       <c r="U15" t="n">
-        <v>137.7041268545529</v>
+        <v>265.9785117033614</v>
       </c>
       <c r="V15" t="n">
-        <v>16.44142755506243</v>
+        <v>265.9785117033614</v>
       </c>
       <c r="W15" t="n">
-        <v>16.44142755506243</v>
+        <v>265.9785117033614</v>
       </c>
       <c r="X15" t="n">
-        <v>16.44142755506243</v>
+        <v>265.9785117033614</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.44142755506243</v>
+        <v>265.9785117033614</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>527.5764290961142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C17" t="n">
-        <v>527.5764290961142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D17" t="n">
-        <v>527.5764290961142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E17" t="n">
-        <v>527.5764290961142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F17" t="n">
-        <v>527.5764290961142</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>527.5764290961142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>527.5764290961142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V17" t="n">
-        <v>527.5764290961142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W17" t="n">
-        <v>527.5764290961142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X17" t="n">
-        <v>527.5764290961142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y17" t="n">
-        <v>527.5764290961142</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>340.7491288998418</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>202.0183034824573</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>88.64916789003665</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5595,19 +5595,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5616,28 +5616,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L19" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M19" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N19" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O19" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R19" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S19" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T19" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U19" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V19" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W19" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X19" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C20" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5789,13 +5789,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X20" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y20" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>51.20856840381305</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5832,22 +5832,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W21" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X21" t="n">
-        <v>51.20856840381305</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y21" t="n">
-        <v>51.20856840381305</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="22">
@@ -5926,25 +5926,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -6017,16 +6017,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X23" t="n">
         <v>19.28114311021272</v>
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>593.6552238493341</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C24" t="n">
-        <v>419.2021945682071</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="D24" t="n">
-        <v>317.2494235330527</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="E24" t="n">
-        <v>158.0119685275972</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6096,22 +6096,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>761.8705608694022</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X24" t="n">
-        <v>761.8705608694022</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y24" t="n">
-        <v>761.8705608694022</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C26" t="n">
         <v>233.7108255783361</v>
       </c>
       <c r="D26" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6263,13 +6263,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y26" t="n">
         <v>720.6083788665362</v>
-      </c>
-      <c r="X26" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>347.7274039646085</v>
+        <v>307.8574406365461</v>
       </c>
       <c r="C27" t="n">
-        <v>347.7274039646085</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D27" t="n">
-        <v>347.7274039646085</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E27" t="n">
-        <v>188.489948959153</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F27" t="n">
-        <v>188.489948959153</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G27" t="n">
-        <v>188.489948959153</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H27" t="n">
-        <v>75.12081336673235</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6312,13 +6312,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
         <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>555.4877027295624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>555.4877027295624</v>
+        <v>891.6845766271009</v>
       </c>
       <c r="X27" t="n">
-        <v>555.4877027295624</v>
+        <v>683.8330764215681</v>
       </c>
       <c r="Y27" t="n">
-        <v>347.7274039646085</v>
+        <v>476.0727776566142</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>310.5702840197694</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C30" t="n">
-        <v>136.1172547386423</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D30" t="n">
-        <v>136.1172547386423</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E30" t="n">
-        <v>136.1172547386423</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="F30" t="n">
-        <v>136.1172547386423</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="G30" t="n">
-        <v>136.1172547386423</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H30" t="n">
         <v>110.334904905842</v>
@@ -6543,49 +6543,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V30" t="n">
-        <v>761.8705608694022</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W30" t="n">
-        <v>518.4217842253022</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X30" t="n">
-        <v>310.5702840197694</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y30" t="n">
-        <v>310.5702840197694</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.7186438601369</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C32" t="n">
-        <v>241.7186438601369</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="D32" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T32" t="n">
-        <v>728.6161971483371</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U32" t="n">
-        <v>728.6161971483371</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V32" t="n">
-        <v>485.167420504237</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W32" t="n">
-        <v>485.167420504237</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X32" t="n">
-        <v>241.7186438601369</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.7186438601369</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>291.8877337080889</v>
+        <v>145.0779112883388</v>
       </c>
       <c r="C33" t="n">
-        <v>291.8877337080889</v>
+        <v>145.0779112883388</v>
       </c>
       <c r="D33" t="n">
-        <v>291.8877337080889</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6780,16 +6780,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6816,13 +6816,13 @@
         <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>485.4562706347935</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X33" t="n">
-        <v>291.8877337080889</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y33" t="n">
-        <v>291.8877337080889</v>
+        <v>313.2932483084068</v>
       </c>
     </row>
     <row r="34">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>132.7447050367114</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>132.7447050367114</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>132.7447050367114</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>132.7447050367114</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>132.7447050367114</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>132.7447050367114</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>259.0600686093459</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C36" t="n">
-        <v>259.0600686093459</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="D36" t="n">
-        <v>259.0600686093459</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="E36" t="n">
-        <v>259.0600686093459</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="F36" t="n">
-        <v>259.0600686093459</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G36" t="n">
         <v>223.7040404982626</v>
@@ -7017,19 +7017,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>234.810827406191</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>259.0600686093459</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y36" t="n">
-        <v>259.0600686093459</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="37">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>627.7355178317791</v>
+        <v>419.9752190668252</v>
       </c>
       <c r="C39" t="n">
-        <v>627.7355178317791</v>
+        <v>419.9752190668252</v>
       </c>
       <c r="D39" t="n">
-        <v>627.7355178317791</v>
+        <v>419.9752190668252</v>
       </c>
       <c r="E39" t="n">
-        <v>468.4980628263236</v>
+        <v>419.9752190668252</v>
       </c>
       <c r="F39" t="n">
-        <v>321.9635048532086</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G39" t="n">
-        <v>183.2326794358241</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H39" t="n">
-        <v>69.86354384340346</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7257,16 +7257,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7296,7 +7296,7 @@
         <v>627.7355178317791</v>
       </c>
       <c r="Y39" t="n">
-        <v>627.7355178317791</v>
+        <v>419.9752190668252</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="S40" t="n">
-        <v>66.78106667958005</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
     </row>
     <row r="41">
@@ -7412,31 +7412,31 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T41" t="n">
         <v>431.628992076841</v>
@@ -7464,10 +7464,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>244.0756638309303</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C42" t="n">
-        <v>69.62263454980328</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
         <v>16.44142755506243</v>
@@ -7491,13 +7491,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N42" t="n">
         <v>435.9652341458732</v>
@@ -7512,28 +7512,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>768.8901707583807</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>768.8901707583807</v>
       </c>
       <c r="T42" t="n">
-        <v>619.8847831118876</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="U42" t="n">
-        <v>619.8847831118876</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="V42" t="n">
-        <v>619.8847831118876</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="W42" t="n">
-        <v>619.8847831118876</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="X42" t="n">
-        <v>619.8847831118876</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="Y42" t="n">
-        <v>412.2910008509983</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="43">
@@ -7649,28 +7649,28 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N44" t="n">
-        <v>603.4426111275161</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
-        <v>752.6375612701642</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
         <v>639.2227743377304</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>129.8105631474831</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="C45" t="n">
-        <v>129.8105631474831</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="D45" t="n">
-        <v>129.8105631474831</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="E45" t="n">
-        <v>129.8105631474831</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="F45" t="n">
-        <v>129.8105631474831</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="G45" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
         <v>16.44142755506243</v>
@@ -7728,22 +7728,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7770,7 +7770,7 @@
         <v>305.7142837842288</v>
       </c>
       <c r="Y45" t="n">
-        <v>129.8105631474831</v>
+        <v>98.12050152333947</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="H46" t="n">
         <v>687.5390872628509</v>
@@ -7843,13 +7843,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W46" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X46" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
   </sheetData>
@@ -7985,10 +7985,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8064,19 +8064,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>336.8595565216137</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O6" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8459,16 +8459,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>344.0722242181546</v>
@@ -8541,13 +8541,13 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>269.7148239424616</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8696,16 +8696,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8775,19 +8775,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,13 +8927,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -9009,16 +9009,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>230.174158102173</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9960,16 +9960,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P27" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10206,10 +10206,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,19 +10428,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>356.2611315939937</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10680,7 +10680,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10905,19 +10905,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,22 +11060,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>154.8597658442563</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>301.368163919873</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
@@ -11385,16 +11385,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>144.0674440055713</v>
+        <v>131.836493543131</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23267,19 +23267,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>237.8052177150866</v>
+        <v>225.855928360474</v>
       </c>
       <c r="G11" t="n">
         <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23340,25 +23340,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>91.71913612111031</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23388,7 +23388,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23400,7 +23400,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>48.24408293224371</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23431,16 +23431,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23507,10 +23507,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>29.45577218916847</v>
@@ -23543,7 +23543,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23552,7 +23552,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23561,7 +23561,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23580,7 +23580,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23592,7 +23592,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23628,10 +23628,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>147.4151786430149</v>
       </c>
       <c r="V15" t="n">
-        <v>112.7505148429297</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23741,10 +23741,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>335.8613673013232</v>
       </c>
       <c r="G17" t="n">
-        <v>363.5805828371576</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>98.46051323810809</v>
@@ -23753,7 +23753,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,16 +23774,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23811,13 +23811,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23829,7 +23829,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>21.46887964564725</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,13 +23856,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23929,13 +23929,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>88.11912650183325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,28 +23969,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>118.5910057342293</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24048,22 +24048,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>141.1003479476514</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>36.25107279319238</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24099,10 +24099,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24111,7 +24111,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24166,13 +24166,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24257,7 +24257,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>10.33136403017744</v>
@@ -24269,7 +24269,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24288,13 +24288,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>46.51182223983591</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>133.7697358995795</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24336,7 +24336,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24345,13 +24345,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24409,7 +24409,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24443,13 +24443,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>154.3469453318534</v>
       </c>
       <c r="E26" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24464,7 +24464,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24503,13 +24503,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,16 +24519,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24540,7 +24540,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.86195062371851</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,7 +24570,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24579,13 +24579,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>180.0461300662196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24652,7 +24652,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24680,16 +24680,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24734,19 +24734,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,10 +24771,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>102.3410493332382</v>
       </c>
       <c r="H30" t="n">
-        <v>86.71091790202408</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24804,25 +24804,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24892,7 +24892,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24917,16 +24917,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>274.3483346048629</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>186.6629199992865</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24959,10 +24959,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24980,7 +24980,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,16 +24993,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>22.90626506829396</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25011,7 +25011,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25056,13 +25056,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>14.14013364603991</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25154,13 +25154,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>252.9439654637738</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25199,13 +25199,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25242,10 +25242,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>127.4520103249939</v>
       </c>
       <c r="G36" t="n">
-        <v>102.3410493332382</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25278,16 +25278,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25296,10 +25296,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25476,10 +25476,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>88.10426277371759</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25488,7 +25488,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>40.06664745181411</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>143.235546850668</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25573,7 +25573,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25670,16 +25670,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>37.99065141955279</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
-        <v>17.57800512585095</v>
+        <v>42.07573218289394</v>
       </c>
       <c r="U41" t="n">
         <v>45.82780846955609</v>
@@ -25710,7 +25710,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>94.79567063984533</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>47.50843922784961</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25907,13 +25907,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>37.99065141955279</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25956,10 +25956,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>56.48123393461637</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -26010,7 +26010,7 @@
         <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>31.53801234692617</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26038,7 +26038,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>378720.3687379285</v>
+        <v>378720.3687379286</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>398904.7039653416</v>
+        <v>398904.7039653417</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>398904.7039653416</v>
+        <v>398904.7039653417</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>398904.7039653417</v>
+        <v>398904.7039653416</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>398904.7039653416</v>
+        <v>398904.7039653417</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>398904.7039653416</v>
+        <v>398904.7039653417</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>378720.3687379287</v>
+        <v>378720.3687379286</v>
       </c>
     </row>
   </sheetData>
@@ -26320,16 +26320,16 @@
         <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
-        <v>189309.1702019179</v>
+        <v>189309.170201918</v>
       </c>
       <c r="F2" t="n">
-        <v>189309.1702019179</v>
+        <v>189309.170201918</v>
       </c>
       <c r="G2" t="n">
+        <v>199392.8070375988</v>
+      </c>
+      <c r="H2" t="n">
         <v>199392.8070375987</v>
-      </c>
-      <c r="H2" t="n">
-        <v>199392.8070375988</v>
       </c>
       <c r="I2" t="n">
         <v>199392.8070375987</v>
@@ -26338,19 +26338,19 @@
         <v>199392.8070375987</v>
       </c>
       <c r="K2" t="n">
-        <v>199392.8070375988</v>
+        <v>199392.8070375987</v>
       </c>
       <c r="L2" t="n">
         <v>199392.8070375987</v>
       </c>
       <c r="M2" t="n">
-        <v>199392.8070375987</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="N2" t="n">
         <v>199392.8070375987</v>
       </c>
       <c r="O2" t="n">
-        <v>189309.170201918</v>
+        <v>189309.1702019179</v>
       </c>
       <c r="P2" t="n">
         <v>189309.170201918</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>301482.3383053389</v>
+        <v>304569.4782239668</v>
       </c>
       <c r="C4" t="n">
-        <v>301482.3383053389</v>
+        <v>304569.4782239668</v>
       </c>
       <c r="D4" t="n">
-        <v>301482.3383053389</v>
+        <v>304569.4782239668</v>
       </c>
       <c r="E4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="F4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="G4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="P4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76145.88208969383</v>
+        <v>73058.74217106594</v>
       </c>
       <c r="C6" t="n">
-        <v>145019.6386713838</v>
+        <v>141932.4987527558</v>
       </c>
       <c r="D6" t="n">
-        <v>145019.6386713838</v>
+        <v>141932.4987527559</v>
       </c>
       <c r="E6" t="n">
-        <v>163869.2211021797</v>
+        <v>160782.0811835518</v>
       </c>
       <c r="F6" t="n">
-        <v>163869.2211021797</v>
+        <v>160782.0811835518</v>
       </c>
       <c r="G6" t="n">
-        <v>161349.2441002925</v>
+        <v>158095.4056586892</v>
       </c>
       <c r="H6" t="n">
-        <v>171078.2870744597</v>
+        <v>167824.4486328562</v>
       </c>
       <c r="I6" t="n">
-        <v>171078.2870744596</v>
+        <v>167824.4486328562</v>
       </c>
       <c r="J6" t="n">
-        <v>117305.7761842502</v>
+        <v>114051.9377426468</v>
       </c>
       <c r="K6" t="n">
-        <v>171078.2870744597</v>
+        <v>167824.4486328562</v>
       </c>
       <c r="L6" t="n">
-        <v>171078.2870744596</v>
+        <v>167824.4486328562</v>
       </c>
       <c r="M6" t="n">
-        <v>171078.2870744596</v>
+        <v>167824.4486328563</v>
       </c>
       <c r="N6" t="n">
-        <v>171078.2870744596</v>
+        <v>167824.4486328562</v>
       </c>
       <c r="O6" t="n">
-        <v>163869.2211021798</v>
+        <v>160782.0811835517</v>
       </c>
       <c r="P6" t="n">
-        <v>163869.2211021798</v>
+        <v>160782.0811835518</v>
       </c>
     </row>
   </sheetData>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>391.0277838167588</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -27421,28 +27421,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>178.9016235602888</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27470,7 +27470,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>218.8571164548248</v>
+        <v>84.51056797201915</v>
       </c>
       <c r="W3" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27552,7 +27552,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>31.76164565717806</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27594,7 +27594,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>121.6721164735665</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>195.6029128086029</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>397.665034870781</v>
       </c>
       <c r="G5" t="n">
         <v>209.7848930768546</v>
       </c>
       <c r="H5" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -27701,10 +27701,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>32.44502069493483</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27713,10 +27713,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>81.69567055863092</v>
       </c>
     </row>
     <row r="7">
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>18.1499461679509</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>123.387056250247</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27862,19 +27862,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>237.8052177150866</v>
+        <v>241.1586658756091</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W8" t="n">
         <v>143.7231242791326</v>
@@ -27932,7 +27932,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,7 +27941,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>103.1780614312167</v>
       </c>
       <c r="Y9" t="n">
-        <v>119.4672968052513</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28029,7 +28029,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28062,7 +28062,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>97.48006257801998</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -34705,10 +34705,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N2" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N2" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34784,19 +34784,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
+        <v>12.72573192223801</v>
+      </c>
+      <c r="O6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="O6" t="n">
-        <v>21.52426467247106</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,16 +35179,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>205.5178444382804</v>
@@ -35261,13 +35261,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35416,16 +35416,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35495,19 +35495,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="O12" t="n">
-        <v>91.61977832229879</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35729,16 +35729,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P27" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36926,10 +36926,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,19 +37148,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37312,7 +37312,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>217.7067518141195</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37400,7 +37400,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37625,19 +37625,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37780,22 +37780,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>12.72573192223801</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -38017,7 +38017,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38032,7 +38032,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>70.1351681646035</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
@@ -38105,16 +38105,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>12.72573192223801</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1219980.387048044</v>
+        <v>1220764.532986073</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797656</v>
+        <v>14829673.35797655</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -677,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>146.8920447697784</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
-        <v>148.8506349098461</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W2" t="n">
         <v>205.5178444382804</v>
@@ -741,22 +743,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>30.83969906740558</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -786,19 +788,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>148.2900191774061</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>136.9013455552336</v>
       </c>
       <c r="F5" t="n">
-        <v>9.211010870930394</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -941,20 +943,20 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -984,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1023,25 +1025,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>80.11569190233639</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
-        <v>123.9870252186734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>143.777391296945</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>165.7173798661024</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>62.56282600373781</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1263,22 +1265,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>102.5949237722608</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,31 +1369,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>14.48693373137008</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>20.51630811538615</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1509,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="13">
@@ -1610,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1649,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1704,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1740,10 +1742,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>78.52620343795996</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1853,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>71.01467844038818</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -1892,13 +1894,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>120.9273370453295</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1923,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1941,7 +1943,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>67.92775320576783</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2163,25 +2165,25 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>111.1939927714464</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>114.4791386772755</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -2220,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2372,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>212.2853856434421</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>91.00671443664322</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,10 +2408,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>11.29947649380434</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2576,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2637,7 +2639,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2649,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.94451941863394</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2694,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>71.64885309469996</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2722,52 +2724,52 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2846,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2874,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2883,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>35.00246782997241</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>42.72249310267225</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2919,25 +2921,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2947,70 +2949,70 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>80.33470701582003</v>
-      </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3074,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3105,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>124.5388004963448</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3120,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.970571721932035</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3174,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3351,19 +3353,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>17.61720206839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>78.98946446248301</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3390,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3408,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3463,13 +3465,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3500,64 +3502,64 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C38" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>241.0142888776591</v>
@@ -3566,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3588,10 +3590,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>117.5784330035868</v>
       </c>
       <c r="F39" t="n">
-        <v>56.96494961966629</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.75543250779076</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3685,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3703,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3749,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>205.5178444382804</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="42">
@@ -3864,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
         <v>52.64939492479352</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -3977,7 +3979,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4019,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.0201173812374</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4037,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4150,52 +4152,52 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.84423892561444</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C2" t="n">
-        <v>38.84423892561444</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D2" t="n">
-        <v>38.84423892561444</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E2" t="n">
-        <v>38.84423892561444</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F2" t="n">
-        <v>31.89873817641097</v>
+        <v>192.3445302212503</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>176.8872195999018</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>176.8872195999018</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
         <v>583.2163723184226</v>
@@ -4349,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V2" t="n">
-        <v>454.031803447393</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W2" t="n">
-        <v>246.4380211865037</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X2" t="n">
-        <v>246.4380211865037</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y2" t="n">
-        <v>246.4380211865037</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>155.9263856252326</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="C3" t="n">
-        <v>155.9263856252326</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="D3" t="n">
-        <v>155.9263856252326</v>
+        <v>398.5500940954249</v>
       </c>
       <c r="E3" t="n">
-        <v>155.9263856252326</v>
+        <v>398.5500940954249</v>
       </c>
       <c r="F3" t="n">
-        <v>155.9263856252326</v>
+        <v>252.0155361223099</v>
       </c>
       <c r="G3" t="n">
-        <v>17.19556020784815</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I3" t="n">
         <v>17.19556020784815</v>
@@ -4410,22 +4412,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M3" t="n">
-        <v>548.724319600695</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N3" t="n">
-        <v>639.4279001397708</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4434,25 +4436,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U3" t="n">
-        <v>513.308066045118</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V3" t="n">
-        <v>363.520167886122</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W3" t="n">
-        <v>155.9263856252326</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="X3" t="n">
-        <v>155.9263856252326</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="Y3" t="n">
-        <v>155.9263856252326</v>
+        <v>547.4845037566762</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245.4092504478133</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C5" t="n">
-        <v>245.4092504478133</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D5" t="n">
-        <v>245.4092504478133</v>
+        <v>396.792197863116</v>
       </c>
       <c r="E5" t="n">
-        <v>245.4092504478133</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="F5" t="n">
+        <v>251.5625096843836</v>
+      </c>
+      <c r="G5" t="n">
         <v>236.1051990630351</v>
       </c>
-      <c r="G5" t="n">
-        <v>28.51141680214578</v>
-      </c>
       <c r="H5" t="n">
-        <v>28.51141680214578</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I5" t="n">
         <v>28.51141680214578</v>
@@ -4571,13 +4573,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4589,28 +4591,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S5" t="n">
-        <v>453.0030327087026</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T5" t="n">
-        <v>453.0030327087026</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U5" t="n">
-        <v>453.0030327087026</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V5" t="n">
-        <v>453.0030327087026</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W5" t="n">
-        <v>453.0030327087026</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X5" t="n">
-        <v>453.0030327087026</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y5" t="n">
-        <v>245.4092504478133</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>254.0297473238067</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C6" t="n">
-        <v>254.0297473238067</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D6" t="n">
-        <v>254.0297473238067</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E6" t="n">
-        <v>254.0297473238067</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F6" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G6" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I6" t="n">
         <v>17.19556020784815</v>
@@ -4647,13 +4649,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N6" t="n">
         <v>435.9652341458732</v>
@@ -4671,25 +4673,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>547.4845037566762</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V6" t="n">
-        <v>547.4845037566762</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="W6" t="n">
-        <v>547.4845037566762</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="X6" t="n">
-        <v>547.4845037566762</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y6" t="n">
-        <v>422.2450843438747</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>819.3224477176605</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>819.3224477176605</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L7" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M7" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N7" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O7" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>819.3224477176605</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>819.3224477176605</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>819.3224477176605</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>819.3224477176605</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>819.3224477176605</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>819.3224477176605</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>819.3224477176605</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>819.3224477176605</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>819.3224477176605</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>819.3224477176605</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>199.2900309704538</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C8" t="n">
-        <v>199.2900309704538</v>
+        <v>459.1562919452729</v>
       </c>
       <c r="D8" t="n">
-        <v>199.2900309704538</v>
+        <v>459.1562919452729</v>
       </c>
       <c r="E8" t="n">
-        <v>199.2900309704538</v>
+        <v>459.1562919452729</v>
       </c>
       <c r="F8" t="n">
-        <v>31.89873817641097</v>
+        <v>251.5625096843836</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T8" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U8" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V8" t="n">
-        <v>406.8838132313431</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W8" t="n">
-        <v>199.2900309704538</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X8" t="n">
-        <v>199.2900309704538</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y8" t="n">
-        <v>199.2900309704538</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>337.4290148093045</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="C9" t="n">
-        <v>162.9759855281775</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="D9" t="n">
-        <v>162.9759855281775</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E9" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
         <v>16.44142755506243</v>
@@ -4884,22 +4886,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
-        <v>423.3667595428576</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N9" t="n">
-        <v>626.8294255367553</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O9" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4911,22 +4913,22 @@
         <v>648.6540332037905</v>
       </c>
       <c r="T9" t="n">
-        <v>648.6540332037905</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U9" t="n">
-        <v>441.0602509429012</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V9" t="n">
-        <v>441.0602509429012</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="W9" t="n">
-        <v>441.0602509429012</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="X9" t="n">
-        <v>337.4290148093045</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="Y9" t="n">
-        <v>337.4290148093045</v>
+        <v>238.8736563016672</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C11" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D11" t="n">
         <v>406.8838132313431</v>
@@ -5027,16 +5029,16 @@
         <v>406.8838132313431</v>
       </c>
       <c r="F11" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5081,10 +5083,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y11" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.9018483060073</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="C12" t="n">
-        <v>720.9018483060073</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>571.967438644756</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>412.7299836393005</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>266.1954256661855</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>127.464600248801</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
         <v>16.44142755506243</v>
@@ -5142,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X12" t="n">
-        <v>720.9018483060073</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y12" t="n">
-        <v>720.9018483060073</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="13">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C14" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5279,49 +5281,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V14" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W14" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X14" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y14" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>265.9785117033614</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>265.9785117033614</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>265.9785117033614</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
         <v>16.44142755506243</v>
@@ -5361,13 +5363,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>345.2616536067974</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
         <v>639.4279001397708</v>
@@ -5388,19 +5390,19 @@
         <v>345.2979091154422</v>
       </c>
       <c r="U15" t="n">
-        <v>265.9785117033614</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V15" t="n">
-        <v>265.9785117033614</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W15" t="n">
-        <v>265.9785117033614</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X15" t="n">
-        <v>265.9785117033614</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>265.9785117033614</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>802.5825927271064</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C17" t="n">
-        <v>802.5825927271064</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D17" t="n">
-        <v>802.5825927271064</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E17" t="n">
-        <v>802.5825927271064</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H17" t="n">
         <v>243.9530410142718</v>
@@ -5540,25 +5542,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>802.5825927271064</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="V17" t="n">
-        <v>802.5825927271064</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="W17" t="n">
-        <v>802.5825927271064</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="X17" t="n">
-        <v>802.5825927271064</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y17" t="n">
-        <v>802.5825927271064</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>487.2836868729568</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>487.2836868729568</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>487.2836868729568</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>340.7491288998418</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>202.0183034824573</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>88.64916789003665</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5595,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>467.067986854209</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5779,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W20" t="n">
-        <v>710.516763498309</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X20" t="n">
-        <v>710.516763498309</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y20" t="n">
-        <v>467.067986854209</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>689.4702815141908</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="C21" t="n">
-        <v>689.4702815141908</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="D21" t="n">
-        <v>577.1531170985884</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="E21" t="n">
-        <v>417.9156620931329</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="F21" t="n">
-        <v>271.3811041200179</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,46 +5837,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W21" t="n">
-        <v>689.4702815141908</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X21" t="n">
-        <v>689.4702815141908</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y21" t="n">
-        <v>689.4702815141908</v>
+        <v>339.3395341116723</v>
       </c>
     </row>
     <row r="22">
@@ -5935,16 +5937,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W23" t="n">
-        <v>233.7108255783361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>344.6327430815143</v>
+        <v>111.2071172886402</v>
       </c>
       <c r="C24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X24" t="n">
-        <v>720.6083788665362</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="Y24" t="n">
-        <v>512.8480801015824</v>
+        <v>111.2071172886402</v>
       </c>
     </row>
     <row r="25">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>307.8574406365461</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C27" t="n">
-        <v>133.4044113554191</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D27" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,16 +6314,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>962.092994481713</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>962.092994481713</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>962.092994481713</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>962.092994481713</v>
       </c>
       <c r="W27" t="n">
-        <v>891.6845766271009</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="X27" t="n">
-        <v>683.8330764215681</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y27" t="n">
-        <v>476.0727776566142</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>259.0600686093459</v>
+        <v>212.1237188612924</v>
       </c>
       <c r="C30" t="n">
-        <v>259.0600686093459</v>
+        <v>212.1237188612924</v>
       </c>
       <c r="D30" t="n">
-        <v>259.0600686093459</v>
+        <v>63.18930920004112</v>
       </c>
       <c r="E30" t="n">
-        <v>259.0600686093459</v>
+        <v>63.18930920004112</v>
       </c>
       <c r="F30" t="n">
-        <v>259.0600686093459</v>
+        <v>63.18930920004112</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>63.18930920004112</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>63.18930920004112</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6543,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>259.0600686093459</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W30" t="n">
-        <v>259.0600686093459</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X30" t="n">
-        <v>259.0600686093459</v>
+        <v>419.8840176262463</v>
       </c>
       <c r="Y30" t="n">
-        <v>259.0600686093459</v>
+        <v>212.1237188612924</v>
       </c>
     </row>
     <row r="31">
@@ -6658,13 +6660,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>343.8760884571613</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C32" t="n">
-        <v>100.4273118130612</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>343.8760884571613</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>343.8760884571613</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>343.8760884571613</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>343.8760884571613</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>145.0779112883388</v>
+        <v>279.432186667424</v>
       </c>
       <c r="C33" t="n">
-        <v>145.0779112883388</v>
+        <v>279.432186667424</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>279.432186667424</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>279.432186667424</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>279.432186667424</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>140.7013612500395</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>27.33222565761882</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6780,19 +6782,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W33" t="n">
-        <v>728.9050472788936</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X33" t="n">
-        <v>521.0535470733607</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y33" t="n">
-        <v>313.2932483084068</v>
+        <v>279.432186667424</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6964,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>380.2300195200815</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C36" t="n">
-        <v>380.2300195200815</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D36" t="n">
-        <v>380.2300195200815</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E36" t="n">
-        <v>380.2300195200815</v>
+        <v>99.82261360389037</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>99.82261360389037</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>99.82261360389037</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>99.82261360389037</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7017,49 +7019,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X36" t="n">
-        <v>756.2056553051034</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y36" t="n">
-        <v>548.4453565401495</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="37">
@@ -7111,10 +7113,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R37" t="n">
         <v>19.28114311021272</v>
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
         <v>19.28114311021272</v>
@@ -7202,22 +7204,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>419.9752190668252</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="C39" t="n">
-        <v>419.9752190668252</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="D39" t="n">
-        <v>419.9752190668252</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="E39" t="n">
-        <v>419.9752190668252</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F39" t="n">
         <v>362.4348659156472</v>
@@ -7254,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7296,7 +7298,7 @@
         <v>627.7355178317791</v>
       </c>
       <c r="Y39" t="n">
-        <v>419.9752190668252</v>
+        <v>627.7355178317791</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>877.0247885897328</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>877.0247885897328</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>877.0247885897328</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7418,13 +7420,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7436,25 +7438,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="T41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="U41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V41" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="T41" t="n">
+      <c r="W41" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="X41" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="Y41" t="n">
         <v>431.628992076841</v>
-      </c>
-      <c r="U41" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="V41" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="W41" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="X41" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="42">
@@ -7497,7 +7499,7 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>345.2616536067974</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N42" t="n">
         <v>435.9652341458732</v>
@@ -7512,7 +7514,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>768.8901707583807</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
         <v>768.8901707583807</v>
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
         <v>16.44142755506243</v>
@@ -7649,28 +7651,28 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>85.87524403801982</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>265.9510956226784</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M44" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
         <v>639.2227743377304</v>
@@ -7685,13 +7687,13 @@
         <v>639.2227743377304</v>
       </c>
       <c r="W44" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="X44" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="Y44" t="n">
         <v>431.628992076841</v>
-      </c>
-      <c r="X44" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="45">
@@ -7734,13 +7736,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N45" t="n">
-        <v>549.2141532458947</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
         <v>752.6768192397923</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H46" t="n">
         <v>687.5390872628509</v>
@@ -7843,13 +7845,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7981,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>265.6729592778915</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8228,7 +8230,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8295,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N6" t="n">
-        <v>144.0674440055713</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>269.7148239424616</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8927,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,16 +9011,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,16 +9254,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O18" t="n">
-        <v>382.6009056104135</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,22 +9485,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9960,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,13 +10679,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,16 +11068,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11145,10 +11147,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N42" t="n">
-        <v>222.9614904056321</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11297,10 +11299,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>290.2250192095839</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11382,16 +11384,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N45" t="n">
-        <v>131.836493543131</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23255,31 +23257,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>225.855928360474</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>41.40506154378102</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23321,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>158.2215652569457</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>91.71913612111031</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23397,13 +23399,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23498,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23513,7 +23515,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,13 +23539,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23552,7 +23554,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>180.7200942177732</v>
+        <v>215.208520489361</v>
       </c>
     </row>
     <row r="15">
@@ -23580,7 +23582,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23592,7 +23594,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23628,10 +23630,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>147.4151786430149</v>
+        <v>105.8913097744792</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23741,13 +23743,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>335.8613673013232</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>130.418315862507</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23811,13 +23813,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23829,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>21.46887964564725</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23902,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H19" t="n">
         <v>162.2271725074396</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>343.4899854645034</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23984,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24017,25 +24019,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24051,25 +24053,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>36.25107279319238</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>22.86437848593511</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24108,10 +24110,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24175,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24206,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24260,16 +24262,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>157.4457150350269</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>81.70178455167252</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24294,10 +24296,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>133.7697358995795</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24306,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,13 +24335,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>154.3469453318534</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24464,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,13 +24487,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24500,16 +24502,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24525,7 +24527,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24537,13 +24539,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,7 +24572,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>169.7386516852039</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24582,10 +24584,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>180.0461300662196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24680,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24734,7 +24736,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24746,7 +24748,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24762,7 +24764,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24771,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>102.3410493332382</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>46.67413974874282</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24807,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24917,16 +24919,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>274.3483346048629</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24962,19 +24964,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24993,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>22.90626506829396</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25008,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>81.42606112948305</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25041,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25062,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>333.4992862499586</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25202,10 +25204,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25239,19 +25241,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>127.4520103249939</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.40716838893206</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25296,10 +25298,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25351,13 +25353,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25442,10 +25444,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>86.73796959247585</v>
@@ -25454,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25476,10 +25478,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>40.06664745181419</v>
       </c>
       <c r="F39" t="n">
-        <v>88.10426277371759</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25536,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>143.235546850668</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25573,7 +25575,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25591,7 +25593,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25600,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25637,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25676,13 +25678,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>42.07573218289394</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>122.2344140318545</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="42">
@@ -25752,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>47.50843922784961</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>119.0337761790443</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25907,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>27.99995220500799</v>
+        <v>37.99065141955279</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25925,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -26038,7 +26040,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>378720.3687379286</v>
+        <v>378720.3687379285</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>378720.3687379286</v>
+        <v>378720.3687379285</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>398904.7039653417</v>
+        <v>398904.7039653416</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>398904.7039653417</v>
+        <v>398904.7039653416</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>398904.7039653416</v>
+        <v>398904.7039653417</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>398904.7039653417</v>
+        <v>398904.7039653416</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>398904.7039653417</v>
+        <v>398904.7039653415</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>378720.3687379285</v>
+        <v>378720.3687379286</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185701</v>
@@ -26341,13 +26343,13 @@
         <v>199392.8070375987</v>
       </c>
       <c r="L2" t="n">
-        <v>199392.8070375987</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="M2" t="n">
         <v>199392.8070375988</v>
       </c>
       <c r="N2" t="n">
-        <v>199392.8070375987</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="O2" t="n">
         <v>189309.1702019179</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73058.74217106594</v>
+        <v>73058.74217106609</v>
       </c>
       <c r="C6" t="n">
         <v>141932.4987527558</v>
       </c>
       <c r="D6" t="n">
-        <v>141932.4987527559</v>
+        <v>141932.4987527558</v>
       </c>
       <c r="E6" t="n">
         <v>160782.0811835518</v>
@@ -26549,13 +26551,13 @@
         <v>167824.4486328562</v>
       </c>
       <c r="L6" t="n">
-        <v>167824.4486328562</v>
+        <v>167824.4486328563</v>
       </c>
       <c r="M6" t="n">
         <v>167824.4486328563</v>
       </c>
       <c r="N6" t="n">
-        <v>167824.4486328562</v>
+        <v>167824.4486328563</v>
       </c>
       <c r="O6" t="n">
         <v>160782.0811835517</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27397,10 +27399,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>63.58384480062747</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27430,13 +27432,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>178.9016235602888</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
         <v>143.7231242791326</v>
@@ -27461,22 +27463,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>106.5038180958051</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,19 +27508,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>84.51056797201915</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27555,13 +27557,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27594,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>121.6721164735665</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>245.0290245170282</v>
       </c>
       <c r="F5" t="n">
-        <v>397.665034870781</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27673,7 +27675,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27704,7 +27706,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27713,7 +27715,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>171.5792912585832</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>81.69567055863092</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>18.1499461679509</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>221.4955004740625</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,19 +27864,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>241.1586658756091</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27904,22 +27906,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -27932,16 +27934,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>110.1456729845779</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27983,10 +27985,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>103.1780614312167</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>56.32934533914268</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28035,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28062,7 +28064,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>97.48006257801998</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -34699,16 +34701,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
+        <v>185.0873001866707</v>
+      </c>
+      <c r="N2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N2" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,7 +34941,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -34948,7 +34950,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35015,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N6" t="n">
-        <v>12.72573192223801</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>127.1185794980172</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,16 +35731,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N15" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O15" t="n">
-        <v>91.61977832229879</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35972,16 +35974,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O18" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36680,19 +36682,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,13 +37399,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>169.9091475161415</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,16 +37788,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37865,10 +37867,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N42" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -38017,10 +38019,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>70.13516816460341</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38032,7 +38034,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38102,16 +38104,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N45" t="n">
-        <v>0.4947814597977008</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1220764.532986073</v>
+        <v>1151104.197311545</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797655</v>
+        <v>14829673.35797656</v>
       </c>
     </row>
     <row r="9">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>146.8920447697784</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U2" t="n">
         <v>205.5178444382804</v>
@@ -721,7 +721,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>136.9013455552336</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>30.83969906740558</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -788,10 +788,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>124.4534684342083</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>205.5178444382804</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>136.9013455552336</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -943,10 +943,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1028,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>80.11569190233639</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.5178444382804</v>
+        <v>201.5900192326606</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>143.777391296945</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>159.0801288120801</v>
+      </c>
+      <c r="G8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G8" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="H8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>62.56282600373781</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>74.82669569991619</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1293,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>110.9174757594852</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1369,73 +1369,73 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="V11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I11" t="n">
-        <v>169.0708280266249</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>14.48693373137008</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>43.67660021802681</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,23 +1606,23 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>31.1509994400877</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>205.5178444382804</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>171.0294181666926</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="15">
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>120.0500723064956</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
+        <v>85.4688076457952</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1855,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>120.9273370453295</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>98.19508828039903</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2016,55 +2016,55 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>11.19305615617957</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2168,19 +2168,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>114.4791386772755</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -2219,16 +2219,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>58.39859058331605</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,23 +2320,23 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>241.0142888776591</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>91.00671443664322</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2456,16 +2456,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
         <v>241.0142888776591</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2636,13 +2636,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>1.94451941863394</v>
+        <v>169.2243792724125</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C29" t="n">
         <v>241.0142888776591</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2891,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>42.72249310267225</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>85.31372784089217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2930,13 +2930,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3107,31 +3107,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>112.2064231095661</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.970571721932035</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3173,10 +3173,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3189,73 +3189,73 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,17 +3265,17 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>21.18375537072436</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3365,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>78.98946446248301</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3465,13 +3465,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>241.0142888776591</v>
@@ -3590,19 +3590,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>117.5784330035868</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>63.14223173826446</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3629,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3748,55 +3748,55 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>169.0708280266249</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="G41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>205.5178444382804</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3824,7 +3824,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>80.38436118951945</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>52.64939492479352</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3918,49 +3918,49 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,13 +3979,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y44" t="n">
         <v>205.5178444382804</v>
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>80.86228322859426</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4118,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>81.13095251577728</v>
       </c>
     </row>
     <row r="46">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>199.2900309704538</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="C2" t="n">
-        <v>199.2900309704538</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="D2" t="n">
-        <v>199.2900309704538</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="E2" t="n">
-        <v>199.2900309704538</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F2" t="n">
-        <v>192.3445302212503</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G2" t="n">
-        <v>176.8872195999018</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H2" t="n">
-        <v>176.8872195999018</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I2" t="n">
         <v>28.51141680214578</v>
@@ -4333,16 +4333,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4351,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922324</v>
+        <v>396.792197863116</v>
       </c>
       <c r="V2" t="n">
-        <v>406.8838132313431</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="W2" t="n">
-        <v>199.2900309704538</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="X2" t="n">
-        <v>199.2900309704538</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="Y2" t="n">
-        <v>199.2900309704538</v>
+        <v>50.91422817269779</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>547.4845037566762</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C3" t="n">
-        <v>547.4845037566762</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D3" t="n">
-        <v>398.5500940954249</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E3" t="n">
-        <v>398.5500940954249</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F3" t="n">
-        <v>252.0155361223099</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G3" t="n">
-        <v>220.8643249431123</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H3" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
         <v>17.19556020784815</v>
@@ -4415,19 +4415,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>142.2888212580996</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M3" t="n">
-        <v>345.7514872519972</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N3" t="n">
-        <v>549.2141532458947</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4436,25 +4436,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>547.4845037566762</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U3" t="n">
-        <v>547.4845037566762</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="V3" t="n">
-        <v>547.4845037566762</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="W3" t="n">
-        <v>547.4845037566762</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="X3" t="n">
-        <v>547.4845037566762</v>
+        <v>393.0046794888054</v>
       </c>
       <c r="Y3" t="n">
-        <v>547.4845037566762</v>
+        <v>185.4108972279162</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4506,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.792197863116</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="C5" t="n">
-        <v>396.792197863116</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="D5" t="n">
-        <v>396.792197863116</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="E5" t="n">
-        <v>258.5080104335871</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F5" t="n">
-        <v>251.5625096843836</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G5" t="n">
-        <v>236.1051990630351</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H5" t="n">
-        <v>236.1051990630351</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I5" t="n">
         <v>28.51141680214578</v>
@@ -4570,16 +4570,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4591,28 +4591,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T5" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U5" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V5" t="n">
-        <v>604.3859801240053</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W5" t="n">
-        <v>604.3859801240053</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X5" t="n">
-        <v>604.3859801240053</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y5" t="n">
-        <v>604.3859801240053</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="C6" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="D6" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="E6" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="F6" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="G6" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
         <v>17.19556020784815</v>
@@ -4655,16 +4655,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>435.9652341458732</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4676,22 +4676,22 @@
         <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U6" t="n">
-        <v>513.308066045118</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="V6" t="n">
-        <v>305.7142837842288</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="W6" t="n">
-        <v>224.7893424687375</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="X6" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4743,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>604.3859801240053</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C8" t="n">
-        <v>459.1562919452729</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D8" t="n">
-        <v>459.1562919452729</v>
+        <v>396.792197863116</v>
       </c>
       <c r="E8" t="n">
-        <v>459.1562919452729</v>
+        <v>396.792197863116</v>
       </c>
       <c r="F8" t="n">
-        <v>251.5625096843836</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G8" t="n">
-        <v>236.1051990630351</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H8" t="n">
         <v>28.51141680214578</v>
@@ -4807,16 +4807,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
         <v>732.4113224610707</v>
@@ -4834,22 +4834,22 @@
         <v>811.9797623848946</v>
       </c>
       <c r="T8" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U8" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V8" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W8" t="n">
-        <v>811.9797623848946</v>
+        <v>396.792197863116</v>
       </c>
       <c r="X8" t="n">
-        <v>811.9797623848946</v>
+        <v>396.792197863116</v>
       </c>
       <c r="Y8" t="n">
-        <v>604.3859801240053</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>238.8736563016672</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="C9" t="n">
-        <v>175.6788825605179</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="D9" t="n">
-        <v>175.6788825605179</v>
+        <v>398.5500940954249</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>239.3126390899694</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>92.77808111685439</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>92.77808111685439</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>92.77808111685439</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>232.5025681519757</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>648.6540332037905</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T9" t="n">
-        <v>446.4674385625565</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U9" t="n">
-        <v>446.4674385625565</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V9" t="n">
-        <v>446.4674385625565</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W9" t="n">
-        <v>446.4674385625565</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="X9" t="n">
-        <v>446.4674385625565</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="Y9" t="n">
-        <v>238.8736563016672</v>
+        <v>547.4845037566762</v>
       </c>
     </row>
     <row r="10">
@@ -4941,19 +4941,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H10" t="n">
         <v>38.93586374282289</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C11" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D11" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E11" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G11" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5050,10 +5050,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
         <v>732.4113224610707</v>
@@ -5074,19 +5074,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y11" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>31.07469395038575</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G12" t="n">
         <v>16.44142755506243</v>
@@ -5123,22 +5123,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5150,22 +5150,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>777.9535997551147</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>570.3598174942255</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>362.7660352333362</v>
       </c>
       <c r="W12" t="n">
-        <v>614.4775954922324</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="X12" t="n">
-        <v>406.8838132313431</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="Y12" t="n">
-        <v>199.2900309704538</v>
+        <v>155.1722529724469</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5232,19 +5232,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>224.0352098159517</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="C14" t="n">
         <v>224.0352098159517</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
         <v>16.44142755506243</v>
@@ -5281,49 +5281,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S14" t="n">
-        <v>604.3859801240053</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T14" t="n">
-        <v>604.3859801240053</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U14" t="n">
-        <v>604.3859801240053</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V14" t="n">
-        <v>604.3859801240053</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W14" t="n">
-        <v>604.3859801240053</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X14" t="n">
-        <v>604.3859801240053</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y14" t="n">
-        <v>431.628992076841</v>
+        <v>255.5008658160403</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5363,13 +5363,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M15" t="n">
         <v>435.9652341458732</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O15" t="n">
         <v>639.4279001397708</v>
@@ -5384,25 +5384,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T15" t="n">
-        <v>345.2979091154422</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U15" t="n">
-        <v>224.0352098159517</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="V15" t="n">
-        <v>16.44142755506243</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="W15" t="n">
-        <v>16.44142755506243</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="X15" t="n">
-        <v>16.44142755506243</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5475,13 +5475,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>243.9530410142718</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C17" t="n">
-        <v>243.9530410142718</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D17" t="n">
-        <v>243.9530410142718</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E17" t="n">
-        <v>243.9530410142718</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F17" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5548,19 +5548,19 @@
         <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>243.9530410142718</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V17" t="n">
-        <v>243.9530410142718</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W17" t="n">
-        <v>243.9530410142718</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X17" t="n">
-        <v>243.9530410142718</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y17" t="n">
-        <v>243.9530410142718</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5603,16 +5603,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5627,19 +5627,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
         <v>19.28114311021272</v>
@@ -5712,13 +5712,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30.58726043968704</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>30.58726043968704</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>517.4848137278872</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>274.0360370837871</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>339.3395341116723</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C21" t="n">
-        <v>339.3395341116723</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D21" t="n">
-        <v>339.3395341116723</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E21" t="n">
-        <v>339.3395341116723</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>339.3395341116723</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5834,49 +5834,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>630.4818061775079</v>
       </c>
       <c r="W21" t="n">
-        <v>547.1910343172051</v>
+        <v>387.0330295334078</v>
       </c>
       <c r="X21" t="n">
-        <v>339.3395341116723</v>
+        <v>387.0330295334078</v>
       </c>
       <c r="Y21" t="n">
-        <v>339.3395341116723</v>
+        <v>179.2727307684539</v>
       </c>
     </row>
     <row r="22">
@@ -5937,16 +5937,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>111.2071172886402</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>383.2428491569326</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U24" t="n">
-        <v>562.4161926976942</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V24" t="n">
-        <v>562.4161926976942</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W24" t="n">
-        <v>318.9674160535941</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X24" t="n">
-        <v>318.9674160535941</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y24" t="n">
-        <v>111.2071172886402</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6171,16 +6171,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6205,16 +6205,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6250,22 +6250,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
         <v>262.7299197543128</v>
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>342.668582052591</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C27" t="n">
-        <v>168.215552771464</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6314,13 +6314,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>962.092994481713</v>
+        <v>793.1234390738559</v>
       </c>
       <c r="T27" t="n">
-        <v>962.092994481713</v>
+        <v>590.936844432622</v>
       </c>
       <c r="U27" t="n">
-        <v>962.092994481713</v>
+        <v>590.936844432622</v>
       </c>
       <c r="V27" t="n">
-        <v>962.092994481713</v>
+        <v>590.936844432622</v>
       </c>
       <c r="W27" t="n">
-        <v>718.6442178376129</v>
+        <v>347.488067788522</v>
       </c>
       <c r="X27" t="n">
-        <v>718.6442178376129</v>
+        <v>347.488067788522</v>
       </c>
       <c r="Y27" t="n">
-        <v>510.883919072659</v>
+        <v>347.488067788522</v>
       </c>
     </row>
     <row r="28">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C29" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6502,13 +6502,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>212.1237188612924</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C30" t="n">
-        <v>212.1237188612924</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D30" t="n">
-        <v>63.18930920004112</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
-        <v>63.18930920004112</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>63.18930920004112</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>63.18930920004112</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>63.18930920004112</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6551,10 +6551,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="V30" t="n">
-        <v>627.7355178317791</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="W30" t="n">
-        <v>627.7355178317791</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="X30" t="n">
-        <v>419.8840176262463</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="Y30" t="n">
-        <v>212.1237188612924</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C32" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6733,19 +6733,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>279.432186667424</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C33" t="n">
-        <v>279.432186667424</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D33" t="n">
-        <v>279.432186667424</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E33" t="n">
-        <v>279.432186667424</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F33" t="n">
-        <v>279.432186667424</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>140.7013612500395</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>27.33222565761882</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6785,13 +6785,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
         <v>964.0571555106362</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X33" t="n">
-        <v>279.432186667424</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y33" t="n">
-        <v>279.432186667424</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6964,25 +6964,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>99.82261360389037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>99.82261360389037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>99.82261360389037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>99.82261360389037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7025,13 +7025,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V36" t="n">
-        <v>259.0600686093459</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W36" t="n">
-        <v>259.0600686093459</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X36" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7113,28 +7113,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
         <v>19.28114311021272</v>
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W38" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>627.7355178317791</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C39" t="n">
-        <v>627.7355178317791</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D39" t="n">
-        <v>627.7355178317791</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="E39" t="n">
-        <v>508.9694238887622</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="F39" t="n">
-        <v>362.4348659156472</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7256,19 +7256,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V39" t="n">
-        <v>627.7355178317791</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W39" t="n">
-        <v>627.7355178317791</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X39" t="n">
-        <v>627.7355178317791</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y39" t="n">
-        <v>627.7355178317791</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="40">
@@ -7359,7 +7359,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
         <v>19.28114311021272</v>
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>431.628992076841</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="C41" t="n">
-        <v>431.628992076841</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D41" t="n">
-        <v>431.628992076841</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N41" t="n">
         <v>583.2163723184226</v>
@@ -7438,25 +7438,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="V41" t="n">
-        <v>614.4775954922324</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="W41" t="n">
-        <v>614.4775954922324</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="X41" t="n">
-        <v>614.4775954922324</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="Y41" t="n">
-        <v>431.628992076841</v>
+        <v>236.1051990630351</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>190.8944568361894</v>
+        <v>272.8449139228332</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>98.39188464170618</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>435.9652341458732</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N42" t="n">
         <v>435.9652341458732</v>
@@ -7517,25 +7517,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>768.8901707583807</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>566.7035761171468</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U42" t="n">
-        <v>566.7035761171468</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V42" t="n">
-        <v>566.7035761171468</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W42" t="n">
-        <v>566.7035761171468</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="X42" t="n">
-        <v>566.7035761171468</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="Y42" t="n">
-        <v>359.1097938562575</v>
+        <v>441.0602509429012</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
         <v>16.44142755506243</v>
@@ -7608,13 +7608,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7675,25 +7675,25 @@
         <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T44" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V44" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W44" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X44" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y44" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>98.12050152333947</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C45" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
         <v>16.44142755506243</v>
@@ -7730,49 +7730,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>366.5706756325438</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>720.9018483060073</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>720.9018483060073</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U45" t="n">
-        <v>720.9018483060073</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V45" t="n">
-        <v>720.9018483060073</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W45" t="n">
-        <v>513.308066045118</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="X45" t="n">
-        <v>305.7142837842288</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="Y45" t="n">
-        <v>98.12050152333947</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8063,7 +8063,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>265.6729592778915</v>
+        <v>335.768472927719</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8078,7 +8078,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,19 +8218,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8303,19 +8303,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>233.7538122443171</v>
+        <v>142.628815381816</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,19 +8455,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>233.7538122443171</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8698,13 +8698,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8771,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N14" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9011,16 +9011,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M15" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9251,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N24" t="n">
-        <v>222.4246658592332</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9962,16 +9962,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10199,13 +10199,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2485028631349</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10433,7 +10433,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10442,7 +10442,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10673,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10904,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11062,16 +11062,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>414.5003637832617</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11141,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>233.7538122443171</v>
+        <v>154.8597658442563</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11299,10 +11299,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L44" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>163.6582985944894</v>
+        <v>339.3481270698632</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23275,13 +23275,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>158.4546847345297</v>
       </c>
       <c r="I11" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23314,16 +23314,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>158.2215652569457</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23351,7 +23351,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23390,22 +23390,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>156.4881284767948</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>334.1218923309199</v>
       </c>
       <c r="D14" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23539,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>3.502225147964936</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>215.208520489361</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23597,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>105.8913097744792</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>147.3317795036301</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>304.5378186490225</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>130.418315862507</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23813,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23867,19 +23867,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>153.4998948805206</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H19" t="n">
         <v>162.2271725074396</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>343.4899854645034</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24019,16 +24019,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24056,19 +24056,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>22.86437848593511</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24107,16 +24107,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>174.4019965661092</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24177,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24223,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24265,10 +24265,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>128.71681180081</v>
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>81.70178455167252</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>71.10541651401829</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24344,16 +24344,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24423,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>86.73796959247585</v>
@@ -24508,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24524,13 +24524,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24572,10 +24572,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>169.7386516852039</v>
+        <v>2.458791831425344</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24590,7 +24590,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C29" t="n">
         <v>124.2586028933485</v>
@@ -24691,10 +24691,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>194.5906600982693</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24742,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24779,10 +24779,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>46.67413974874282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>14.84410631175096</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24818,13 +24818,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,16 +24922,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24973,10 +24973,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24995,31 +24995,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>60.50207587874966</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42606112948305</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25061,10 +25061,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="35">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>333.4992862499586</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25204,13 +25204,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25241,7 +25241,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25253,10 +25253,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>10.40716838893206</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25353,13 +25353,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25399,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>319.5141023699695</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25438,22 +25438,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>128.71681180081</v>
@@ -25478,19 +25478,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>40.06664745181419</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>74.20128542494618</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25599,10 +25599,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25636,13 +25636,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>39.94924155962048</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
         <v>122.2344140318545</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.2178212748162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25712,7 +25712,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>67.0607043751193</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,10 +25757,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>119.0337761790443</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25806,7 +25806,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,13 +25867,13 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>222.8502412601817</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>37.99065141955279</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y44" t="n">
         <v>180.7200942177732</v>
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25958,7 +25958,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>56.48123393461637</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26006,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>124.5517432615271</v>
       </c>
     </row>
     <row r="46">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>378720.3687379285</v>
+        <v>378720.3687379286</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>398904.7039653416</v>
+        <v>398904.7039653417</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>398904.7039653417</v>
+        <v>398904.7039653416</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>398904.7039653417</v>
+        <v>398904.7039653416</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>398904.7039653415</v>
+        <v>398904.7039653416</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185702</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185701</v>
@@ -26337,7 +26337,7 @@
         <v>199392.8070375987</v>
       </c>
       <c r="J2" t="n">
-        <v>199392.8070375987</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="K2" t="n">
         <v>199392.8070375987</v>
@@ -26346,10 +26346,10 @@
         <v>199392.8070375988</v>
       </c>
       <c r="M2" t="n">
-        <v>199392.8070375988</v>
+        <v>199392.8070375987</v>
       </c>
       <c r="N2" t="n">
-        <v>199392.8070375988</v>
+        <v>199392.8070375987</v>
       </c>
       <c r="O2" t="n">
         <v>189309.1702019179</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>304569.4782239668</v>
+        <v>304569.4782239669</v>
       </c>
       <c r="C4" t="n">
         <v>304569.4782239668</v>
       </c>
       <c r="D4" t="n">
-        <v>304569.4782239668</v>
+        <v>304569.4782239669</v>
       </c>
       <c r="E4" t="n">
         <v>16031.60407651876</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73058.74217106609</v>
+        <v>73058.74217106591</v>
       </c>
       <c r="C6" t="n">
-        <v>141932.4987527558</v>
+        <v>141932.4987527559</v>
       </c>
       <c r="D6" t="n">
-        <v>141932.4987527558</v>
+        <v>141932.4987527557</v>
       </c>
       <c r="E6" t="n">
-        <v>160782.0811835518</v>
+        <v>148143.9190286913</v>
       </c>
       <c r="F6" t="n">
-        <v>160782.0811835518</v>
+        <v>148143.9190286912</v>
       </c>
       <c r="G6" t="n">
-        <v>158095.4056586892</v>
+        <v>145877.3950386487</v>
       </c>
       <c r="H6" t="n">
-        <v>167824.4486328562</v>
+        <v>155606.4380128157</v>
       </c>
       <c r="I6" t="n">
-        <v>167824.4486328562</v>
+        <v>155606.4380128157</v>
       </c>
       <c r="J6" t="n">
-        <v>114051.9377426468</v>
+        <v>101833.9271226064</v>
       </c>
       <c r="K6" t="n">
-        <v>167824.4486328562</v>
+        <v>155606.4380128157</v>
       </c>
       <c r="L6" t="n">
-        <v>167824.4486328563</v>
+        <v>155606.4380128158</v>
       </c>
       <c r="M6" t="n">
-        <v>167824.4486328563</v>
+        <v>155606.4380128157</v>
       </c>
       <c r="N6" t="n">
-        <v>167824.4486328563</v>
+        <v>155606.4380128157</v>
       </c>
       <c r="O6" t="n">
-        <v>160782.0811835517</v>
+        <v>148143.9190286912</v>
       </c>
       <c r="P6" t="n">
-        <v>160782.0811835518</v>
+        <v>148143.9190286913</v>
       </c>
     </row>
   </sheetData>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>63.58384480062747</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27432,7 +27432,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
         <v>45.82780846955609</v>
@@ -27441,7 +27441,7 @@
         <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>212.3396231621794</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>106.5038180958051</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>81.3195167692692</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -27557,13 +27557,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>190.1837696111163</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>245.0290245170282</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27675,7 +27675,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -27715,7 +27715,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27748,19 +27748,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>171.5792912585832</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>4.182965970816923</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27824,7 +27824,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>115.8205630125936</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>221.4955004740625</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>247.7959169296313</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27906,7 +27906,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27934,16 +27934,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>110.1456729845779</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27952,10 +27952,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>14.56993715149889</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>56.32934533914268</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28028,7 +28028,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>51.30969674795442</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -34701,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34783,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>127.1185794980173</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35023,19 +35023,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>91.61977832229879</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,13 +35418,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35491,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
+        <v>185.0873001866707</v>
+      </c>
+      <c r="N14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N14" t="n">
-        <v>171.5974510766996</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M15" t="n">
-        <v>91.61977832229879</v>
-      </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35971,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N24" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36682,16 +36682,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37153,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37162,7 +37162,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>91.61977832229879</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -38019,10 +38019,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L44" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38034,7 +38034,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>21.52426467247106</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
